--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7012,6 +7012,41 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I183" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7047,6 +7047,78 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7119,6 +7119,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I186" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7154,6 +7154,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7191,6 +7191,80 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7265,6 +7265,43 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7302,6 +7302,43 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6403,11 +6403,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6421,30 +6421,28 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="F166" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="G166" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="H166" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.98</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1575417600</v>
+        <v>1574380800</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6458,30 +6456,28 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1575849600</v>
+        <v>1574812800</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6495,28 +6491,28 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="F168" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="G168" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="H168" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="I168" t="n">
-        <v>70000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1575936000</v>
+        <v>1574899200</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6530,28 +6526,28 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="F169" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="H169" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="I169" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1576022400</v>
+        <v>1574985600</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6565,28 +6561,30 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="F170" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="G170" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="H170" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="I170" t="n">
-        <v>13000</v>
+        <v>1.05</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1576108800</v>
+        <v>1575417600</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6600,28 +6598,30 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="F171" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="G171" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="H171" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I171" t="n">
-        <v>10000</v>
+        <v>1.05</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1576195200</v>
+        <v>1575849600</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6635,28 +6635,28 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="F172" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="G172" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="H172" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="I172" t="n">
-        <v>20000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1576627200</v>
+        <v>1575936000</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6670,30 +6670,28 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="F173" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="G173" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1576713600</v>
+        <v>1576022400</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6707,30 +6705,28 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="F174" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="G174" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="H174" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.13</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13000</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1576800000</v>
+        <v>1576108800</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6744,30 +6740,28 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F175" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G175" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H175" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.14</v>
+      </c>
+      <c r="I175" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1577059200</v>
+        <v>1576195200</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6781,16 +6775,16 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F176" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="G176" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="H176" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="I176" t="n">
         <v>20000</v>
@@ -6798,11 +6792,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1578873600</v>
+        <v>1576627200</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6816,28 +6810,30 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="F177" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="H177" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>200000</v>
+        <v>1.15</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1579046400</v>
+        <v>1576713600</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6851,16 +6847,16 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="F178" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="H178" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -6870,11 +6866,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1579132800</v>
+        <v>1576800000</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6888,28 +6884,30 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="F179" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="H179" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>20000</v>
+        <v>1.15</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1580256000</v>
+        <v>1577059200</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6923,28 +6921,28 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="F180" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G180" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="H180" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I180" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1580342400</v>
+        <v>1578873600</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6958,30 +6956,28 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F181" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G181" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>200000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1580428800</v>
+        <v>1579046400</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6995,16 +6991,16 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F182" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G182" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -7014,11 +7010,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1581638400</v>
+        <v>1579132800</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7032,28 +7028,28 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="F183" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G183" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="I183" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1583107200</v>
+        <v>1580256000</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7067,30 +7063,28 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="F184" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G184" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H184" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.21</v>
+      </c>
+      <c r="I184" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1583193600</v>
+        <v>1580342400</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7104,28 +7098,30 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="F185" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="H185" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I185" t="n">
-        <v>5000</v>
+        <v>1.21</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1583280000</v>
+        <v>1580428800</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7139,28 +7135,30 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="F186" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="G186" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="H186" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I186" t="n">
-        <v>10000</v>
+        <v>1.21</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1583712000</v>
+        <v>1581638400</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7174,30 +7172,28 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="F187" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="G187" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="H187" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.22</v>
+      </c>
+      <c r="I187" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1583798400</v>
+        <v>1583107200</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7211,16 +7207,16 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="F188" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="G188" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="H188" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -7230,11 +7226,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1583884800</v>
+        <v>1583193600</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7248,30 +7244,28 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="F189" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="G189" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.3</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1583971200</v>
+        <v>1583280000</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7296,19 +7290,17 @@
       <c r="H190" t="n">
         <v>1.35</v>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I190" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1584057600</v>
+        <v>1583712000</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7334,6 +7326,154 @@
         <v>1.35</v>
       </c>
       <c r="I191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,6 +7479,43 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7516,6 +7516,43 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7553,6 +7553,43 @@
         </is>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7590,6 +7590,43 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7627,6 +7627,43 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7664,6 +7664,43 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7701,6 +7701,43 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7738,6 +7738,43 @@
         </is>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7775,6 +7775,43 @@
         </is>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7812,6 +7812,43 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7849,6 +7849,43 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7886,6 +7886,43 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7923,6 +7923,43 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7960,6 +7960,43 @@
         </is>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7997,6 +7997,43 @@
         </is>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8034,6 +8034,43 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8071,6 +8071,43 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8108,6 +8108,43 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8145,6 +8145,43 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8182,6 +8182,43 @@
         </is>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8219,6 +8219,43 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8256,6 +8256,43 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8293,6 +8293,80 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8367,6 +8367,43 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8404,6 +8404,117 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8515,6 +8515,43 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8552,6 +8552,43 @@
         </is>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03017.xlsx
+++ b/data/03017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8589,6 +8589,117 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>03017</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>UNIWALL</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
